--- a/metrics/R2/average & upto/Enfermedad renal terminal.xlsx
+++ b/metrics/R2/average & upto/Enfermedad renal terminal.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7472083422145706</v>
+        <v>0.6857007157286671</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7472083422145706</v>
+        <v>0.685700715728667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7472083422145706</v>
+        <v>0.685700715728667</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9736726343981807</v>
+        <v>0.9359052913918838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9734006446391394</v>
+        <v>0.9358798738572254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9741568961081655</v>
+        <v>0.9355570093540133</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9799420321099531</v>
+        <v>0.9314905311052646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9797814794133289</v>
+        <v>0.9314824820058111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9801036986291147</v>
+        <v>0.9312302277479425</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9461804820864254</v>
+        <v>0.9450272455643077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9475647776379182</v>
+        <v>0.9433668661337045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9448034449778202</v>
+        <v>0.9439994681881739</v>
       </c>
     </row>
   </sheetData>
